--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120780.8188218835</v>
+        <v>118342.3457221368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>205.3744415969308</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3132763644279</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.444282854098577</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>71.31340860082521</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>198.1059211474326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238.1458344391897</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>32.93805507567833</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.04243904605819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.0860508096745</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>221.818879406791</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.8847756316534</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752623</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.76895293959905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833666</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>118.2774686880341</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6452826062324948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>107.5419779170888</v>
+        <v>103.1686991936176</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>3.814130455268728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.77415159213958</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>127.1562738804004</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>93.62264337260652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.05806357631725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>62.8430069829285</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>120.8326485140796</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1737.28132205767</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1368.318805117259</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D2" t="n">
-        <v>1368.318805117259</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E2" t="n">
-        <v>982.5305525190145</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F2" t="n">
-        <v>571.5446477294068</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993391</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2853.655067564676</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2500.886412294562</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2127.420654033482</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1737.28132205767</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.773976541745</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.545862493623</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.545862493623</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.545862493623</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610488</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>935.3220115735276</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>735.2150205155149</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.4224413719847</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176917</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.135186201106</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,22 +4720,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>608.7574741064773</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.038123118956</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.269467848841</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.269467848841</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.13013587303</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1887.006895935308</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1695.321011762134</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1695.321011762134</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1406.218144887777</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1406.218144887777</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.218144887777</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.22859398976</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,13 +5294,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237791</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302813</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935569</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C22" t="n">
-        <v>666.64760976565</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D22" t="n">
-        <v>516.5309703533143</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565344</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667327</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523797</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,19 +6072,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246282</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967213</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6154,43 +6154,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354868</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080346</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>808.8888553856862</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>658.7722159733504</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>510.8591223909573</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>363.9691748930469</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>672.6908673905391</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>524.777773808146</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5472840565227</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901288</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459459</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.8601746357938</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>38.89198472948034</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>144.8013425629436</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.0578285897977</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.36786441186848</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.62417772602132</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>85.77246603528386</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>24.58839950885168</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>131.695219374394</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406864</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682525</v>
-      </c>
       <c r="J2" t="n">
-        <v>343037.3048682531</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.304868253</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682529</v>
-      </c>
       <c r="P2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.1272754919</v>
+        <v>48409.12727549196</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,13 +26436,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680589</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26454,7 +26454,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167831.937423791</v>
+        <v>-1168018.330812331</v>
       </c>
       <c r="C6" t="n">
-        <v>150044.8006427698</v>
+        <v>150044.8006427699</v>
       </c>
       <c r="D6" t="n">
-        <v>150044.8006427698</v>
+        <v>150044.8006427706</v>
       </c>
       <c r="E6" t="n">
-        <v>-95274.66297981546</v>
+        <v>-95309.40090525143</v>
       </c>
       <c r="F6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.060902104</v>
       </c>
       <c r="G6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021041</v>
       </c>
       <c r="H6" t="n">
-        <v>230137.7988275399</v>
+        <v>230103.0609021042</v>
       </c>
       <c r="I6" t="n">
-        <v>230137.7988275396</v>
+        <v>230103.0609021042</v>
       </c>
       <c r="J6" t="n">
-        <v>12606.5964302627</v>
+        <v>12571.85850482681</v>
       </c>
       <c r="K6" t="n">
-        <v>230137.7988275401</v>
+        <v>230103.0609021042</v>
       </c>
       <c r="L6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.0609021041</v>
       </c>
       <c r="M6" t="n">
-        <v>145082.7708920279</v>
+        <v>145048.0329665925</v>
       </c>
       <c r="N6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.0609021042</v>
       </c>
       <c r="O6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021039</v>
       </c>
       <c r="P6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021041</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.8579417260424</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.438982105707</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>141.9767651688327</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.6037342416046</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144.5880072242908</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.7716003133588</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.5422143060366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.83191932994563</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>105.9333790633439</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>49.04737703839393</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>164.5384741215109</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>209.9499448422518</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>553.3925020622929</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>483.3274636075158</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32719,7 +32719,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,31 +33029,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>322.7581251332984</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486403</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.246297345936</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>231.5286848890172</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>537.7477759959934</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>452.3405299254388</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>71.39556506237764</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>414.8381222824187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>340.7312191630714</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041959</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.2645232599145</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,22 +37382,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>92.97430510914305</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>403.7733685816631</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>310.2064960034205</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
